--- a/public/templates/employee_template.xlsx
+++ b/public/templates/employee_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5ca3c7a176f2718/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\philip\code\personaal\hrm\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="235">
   <si>
     <t>gender</t>
   </si>
@@ -44,16 +35,700 @@
     <t>id_no</t>
   </si>
   <si>
-    <t>kra_pin_no</t>
-  </si>
-  <si>
-    <t>nssf_no</t>
-  </si>
-  <si>
-    <t>nhif_no</t>
-  </si>
-  <si>
-    <t>basic_salary</t>
+    <t>staff_no</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>date_joining</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>FPM/001</t>
+  </si>
+  <si>
+    <t>Moses  Gichuhi Kigutya</t>
+  </si>
+  <si>
+    <t>29483797</t>
+  </si>
+  <si>
+    <t>Tenant Placement Officer</t>
+  </si>
+  <si>
+    <t>0700111159</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>FPM/004</t>
+  </si>
+  <si>
+    <t>Joseph  Kihunii Kinyanjui</t>
+  </si>
+  <si>
+    <t>38387983</t>
+  </si>
+  <si>
+    <t>IT Officer</t>
+  </si>
+  <si>
+    <t>0715742990</t>
+  </si>
+  <si>
+    <t>FR/1001</t>
+  </si>
+  <si>
+    <t>Moses  Muriithi Kihuni</t>
+  </si>
+  <si>
+    <t>25876155</t>
+  </si>
+  <si>
+    <t>Chief Executive Office</t>
+  </si>
+  <si>
+    <t>0721701118</t>
+  </si>
+  <si>
+    <t>FR/1003</t>
+  </si>
+  <si>
+    <t>Gladys Nafula Situma</t>
+  </si>
+  <si>
+    <t>29019720</t>
+  </si>
+  <si>
+    <t>Branch Manager</t>
+  </si>
+  <si>
+    <t>0720663044</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>FR/1007</t>
+  </si>
+  <si>
+    <t>Zipporah Muihu Kiringu</t>
+  </si>
+  <si>
+    <t>23739175</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>0799001133</t>
+  </si>
+  <si>
+    <t>FR/1008</t>
+  </si>
+  <si>
+    <t>Tabitha Katheu Mawia</t>
+  </si>
+  <si>
+    <t>33651973</t>
+  </si>
+  <si>
+    <t>Administrative Assistant</t>
+  </si>
+  <si>
+    <t>0799000111</t>
+  </si>
+  <si>
+    <t>FR/1009</t>
+  </si>
+  <si>
+    <t>Duncan  Kanyiri  Wairimu</t>
+  </si>
+  <si>
+    <t>30243767</t>
+  </si>
+  <si>
+    <t>0700664669</t>
+  </si>
+  <si>
+    <t>FR/1010</t>
+  </si>
+  <si>
+    <t>Kenneth Muiruri Mwangi</t>
+  </si>
+  <si>
+    <t>30104227</t>
+  </si>
+  <si>
+    <t>0799174070</t>
+  </si>
+  <si>
+    <t>FR/1013</t>
+  </si>
+  <si>
+    <t>Zacharia Amugune Cheyweh</t>
+  </si>
+  <si>
+    <t>34024810</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>0748301630</t>
+  </si>
+  <si>
+    <t>FR/1014</t>
+  </si>
+  <si>
+    <t>Charity Nyokabi Ngugi</t>
+  </si>
+  <si>
+    <t>33267621</t>
+  </si>
+  <si>
+    <t>Assistant Sales Manager</t>
+  </si>
+  <si>
+    <t>0799001188</t>
+  </si>
+  <si>
+    <t>FR/1019</t>
+  </si>
+  <si>
+    <t>Bridgette Mukhwana Nakhisa</t>
+  </si>
+  <si>
+    <t>29439101</t>
+  </si>
+  <si>
+    <t>0700111172</t>
+  </si>
+  <si>
+    <t>FR/1020</t>
+  </si>
+  <si>
+    <t>Geoffrey Mutua Michael</t>
+  </si>
+  <si>
+    <t>29466815</t>
+  </si>
+  <si>
+    <t>Content and Creatives Manager</t>
+  </si>
+  <si>
+    <t>0719278962</t>
+  </si>
+  <si>
+    <t>FR/1023</t>
+  </si>
+  <si>
+    <t>Christine Wanja Njagi</t>
+  </si>
+  <si>
+    <t>27631138</t>
+  </si>
+  <si>
+    <t>0700111143</t>
+  </si>
+  <si>
+    <t>FR/1024</t>
+  </si>
+  <si>
+    <t>Evanson Nganga Mungai</t>
+  </si>
+  <si>
+    <t>32395861</t>
+  </si>
+  <si>
+    <t>Graphics Designer</t>
+  </si>
+  <si>
+    <t>0718672230</t>
+  </si>
+  <si>
+    <t>FR/1025</t>
+  </si>
+  <si>
+    <t>Lawrence Mwangi Gachanja</t>
+  </si>
+  <si>
+    <t>29256858</t>
+  </si>
+  <si>
+    <t>Company Lawyer</t>
+  </si>
+  <si>
+    <t>0725087710</t>
+  </si>
+  <si>
+    <t>FR/1028</t>
+  </si>
+  <si>
+    <t>Geoffrey Gichuki Gerald</t>
+  </si>
+  <si>
+    <t>25158170</t>
+  </si>
+  <si>
+    <t>0799664499</t>
+  </si>
+  <si>
+    <t>FR/1029</t>
+  </si>
+  <si>
+    <t>Sharon Akinyi Juma</t>
+  </si>
+  <si>
+    <t>32436405</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t>0795664488</t>
+  </si>
+  <si>
+    <t>FR/1030</t>
+  </si>
+  <si>
+    <t>Josphat Murimi Njogu</t>
+  </si>
+  <si>
+    <t>24557432</t>
+  </si>
+  <si>
+    <t>0708927965</t>
+  </si>
+  <si>
+    <t>FR/1031</t>
+  </si>
+  <si>
+    <t>Ignatius Opondo Kwena</t>
+  </si>
+  <si>
+    <t>25544532</t>
+  </si>
+  <si>
+    <t>0700111132</t>
+  </si>
+  <si>
+    <t>FR/1032</t>
+  </si>
+  <si>
+    <t>Evalyne Muthei Ongubo</t>
+  </si>
+  <si>
+    <t>25351284</t>
+  </si>
+  <si>
+    <t>0799001177</t>
+  </si>
+  <si>
+    <t>FR/1034</t>
+  </si>
+  <si>
+    <t>Eunice Cindy Agiso</t>
+  </si>
+  <si>
+    <t>33442545</t>
+  </si>
+  <si>
+    <t>0799001144</t>
+  </si>
+  <si>
+    <t>FR/1036</t>
+  </si>
+  <si>
+    <t>Mercy Murugi Muhia</t>
+  </si>
+  <si>
+    <t>27452624</t>
+  </si>
+  <si>
+    <t>HR&amp;Admin Manager</t>
+  </si>
+  <si>
+    <t>0727056004</t>
+  </si>
+  <si>
+    <t>FR/1037</t>
+  </si>
+  <si>
+    <t>Linner  Ndanu Muli</t>
+  </si>
+  <si>
+    <t>27466748</t>
+  </si>
+  <si>
+    <t>Finance Manager</t>
+  </si>
+  <si>
+    <t>0729300857</t>
+  </si>
+  <si>
+    <t>FR/1038</t>
+  </si>
+  <si>
+    <t>Philip Wainaina Njuguna</t>
+  </si>
+  <si>
+    <t>28450270</t>
+  </si>
+  <si>
+    <t>IT Manager</t>
+  </si>
+  <si>
+    <t>0714686511</t>
+  </si>
+  <si>
+    <t>FR/1041</t>
+  </si>
+  <si>
+    <t>Elizabeth Salama Mwamutsi</t>
+  </si>
+  <si>
+    <t>30367559</t>
+  </si>
+  <si>
+    <t>0700006002</t>
+  </si>
+  <si>
+    <t>FR/1042</t>
+  </si>
+  <si>
+    <t>Caroline Mbenya Mbatya</t>
+  </si>
+  <si>
+    <t>28710996</t>
+  </si>
+  <si>
+    <t>0711138888</t>
+  </si>
+  <si>
+    <t>FR/1045</t>
+  </si>
+  <si>
+    <t>Maurice Oded Nelson</t>
+  </si>
+  <si>
+    <t>34210019</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>0718793603</t>
+  </si>
+  <si>
+    <t>FR/1046</t>
+  </si>
+  <si>
+    <t>Sipriana Wakesho Mwatela</t>
+  </si>
+  <si>
+    <t>12546855</t>
+  </si>
+  <si>
+    <t>Office Cleaner</t>
+  </si>
+  <si>
+    <t>0725320372</t>
+  </si>
+  <si>
+    <t>FR/1048</t>
+  </si>
+  <si>
+    <t>Dennis Njeru Ngari</t>
+  </si>
+  <si>
+    <t>34147381</t>
+  </si>
+  <si>
+    <t>0794233561</t>
+  </si>
+  <si>
+    <t>FR/1049</t>
+  </si>
+  <si>
+    <t>Peninah Wasai Njeru</t>
+  </si>
+  <si>
+    <t>25439865</t>
+  </si>
+  <si>
+    <t>0711125555</t>
+  </si>
+  <si>
+    <t>FR/1051</t>
+  </si>
+  <si>
+    <t>Ibrahim Baasal Macharia</t>
+  </si>
+  <si>
+    <t>30678477</t>
+  </si>
+  <si>
+    <t>0795664455</t>
+  </si>
+  <si>
+    <t>FR/1052</t>
+  </si>
+  <si>
+    <t>JOYCE WAMAITHA MUTHONI</t>
+  </si>
+  <si>
+    <t>36319448</t>
+  </si>
+  <si>
+    <t>Finance Admin Assistant</t>
+  </si>
+  <si>
+    <t>0706 078 857</t>
+  </si>
+  <si>
+    <t>FR/1054</t>
+  </si>
+  <si>
+    <t>ANN WAMBUI KARANJA</t>
+  </si>
+  <si>
+    <t>39319908</t>
+  </si>
+  <si>
+    <t>0112644591</t>
+  </si>
+  <si>
+    <t>FR/1055</t>
+  </si>
+  <si>
+    <t>Mercy Akinyi Arika</t>
+  </si>
+  <si>
+    <t>25776116</t>
+  </si>
+  <si>
+    <t>0729853449</t>
+  </si>
+  <si>
+    <t>FR/1056</t>
+  </si>
+  <si>
+    <t>Eunice Wangu Kimani</t>
+  </si>
+  <si>
+    <t>31908579</t>
+  </si>
+  <si>
+    <t>0721118398</t>
+  </si>
+  <si>
+    <t>FR/1057</t>
+  </si>
+  <si>
+    <t>Kelvin Karanja Nderitu</t>
+  </si>
+  <si>
+    <t>32355948</t>
+  </si>
+  <si>
+    <t>0703132050</t>
+  </si>
+  <si>
+    <t>FR/1058</t>
+  </si>
+  <si>
+    <t>Eunice Nduta Karanja</t>
+  </si>
+  <si>
+    <t>33622342</t>
+  </si>
+  <si>
+    <t>0704962809</t>
+  </si>
+  <si>
+    <t>FR/1059</t>
+  </si>
+  <si>
+    <t>JOHN WAMURU MUGO</t>
+  </si>
+  <si>
+    <t>29326065</t>
+  </si>
+  <si>
+    <t>0797885226</t>
+  </si>
+  <si>
+    <t>FR/1060</t>
+  </si>
+  <si>
+    <t>Purity Wanjiru Mwangi</t>
+  </si>
+  <si>
+    <t>33699414</t>
+  </si>
+  <si>
+    <t>0711243211</t>
+  </si>
+  <si>
+    <t>FR/1061</t>
+  </si>
+  <si>
+    <t>Angella Kathure Kalunge</t>
+  </si>
+  <si>
+    <t>35601385</t>
+  </si>
+  <si>
+    <t>0726702454</t>
+  </si>
+  <si>
+    <t>FR/1062</t>
+  </si>
+  <si>
+    <t>Barbara Abigael Achieng</t>
+  </si>
+  <si>
+    <t>29202158</t>
+  </si>
+  <si>
+    <t>0701222744</t>
+  </si>
+  <si>
+    <t>FR/1063</t>
+  </si>
+  <si>
+    <t>Stephen  Waite  Kamau</t>
+  </si>
+  <si>
+    <t>35547708</t>
+  </si>
+  <si>
+    <t>0798183032</t>
+  </si>
+  <si>
+    <t>FR/1064</t>
+  </si>
+  <si>
+    <t>Rebecca Wanjugu Mutahi</t>
+  </si>
+  <si>
+    <t>33864474</t>
+  </si>
+  <si>
+    <t>0720623169</t>
+  </si>
+  <si>
+    <t>FSI/22002</t>
+  </si>
+  <si>
+    <t>MERCY WAMUYU WANJIRU</t>
+  </si>
+  <si>
+    <t>36031389</t>
+  </si>
+  <si>
+    <t>0700006003</t>
+  </si>
+  <si>
+    <t>FSI/22004</t>
+  </si>
+  <si>
+    <t>MWANAHAWA NASRA SAID</t>
+  </si>
+  <si>
+    <t>33878607</t>
+  </si>
+  <si>
+    <t>0742506159</t>
+  </si>
+  <si>
+    <t>FSI/22005</t>
+  </si>
+  <si>
+    <t>TIM LEON WALUSALA</t>
+  </si>
+  <si>
+    <t>36488407</t>
+  </si>
+  <si>
+    <t>0799001155</t>
+  </si>
+  <si>
+    <t>FSI/22006</t>
+  </si>
+  <si>
+    <t>JOY AKOTH OTIENO</t>
+  </si>
+  <si>
+    <t>34637409</t>
+  </si>
+  <si>
+    <t>0714220879</t>
+  </si>
+  <si>
+    <t>FSI/22014</t>
+  </si>
+  <si>
+    <t>Evelyne Mutundu Muugi</t>
+  </si>
+  <si>
+    <t>37798766</t>
+  </si>
+  <si>
+    <t>Sales Intern</t>
+  </si>
+  <si>
+    <t>0723270296</t>
+  </si>
+  <si>
+    <t>FSI/22015</t>
+  </si>
+  <si>
+    <t>Martha Wangari Warui</t>
+  </si>
+  <si>
+    <t>32519604</t>
+  </si>
+  <si>
+    <t>0705101478</t>
+  </si>
+  <si>
+    <t>FSI/22016</t>
+  </si>
+  <si>
+    <t>James Maingi Musyoka</t>
+  </si>
+  <si>
+    <t>32192550</t>
+  </si>
+  <si>
+    <t>0715408436</t>
+  </si>
+  <si>
+    <t>FSI/22017</t>
+  </si>
+  <si>
+    <t>KENNY GICHERU MUIRURI</t>
+  </si>
+  <si>
+    <t>35748308</t>
+  </si>
+  <si>
+    <t>0741461059</t>
   </si>
 </sst>
 </file>
@@ -61,9 +736,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,12 +752,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,16 +780,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,36 +1084,1516 @@
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33221</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>37054</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44034</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32329</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44020</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>33802</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30794</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <v>34510</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43405</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>34088</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43399</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>34288</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43416</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35305</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43682</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1">
+        <v>35124</v>
+      </c>
+      <c r="J11" s="1">
+        <v>43466</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1">
+        <v>33521</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1">
+        <v>33497</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44073</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1">
+        <v>32963</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43834</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="1">
+        <v>34968</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43838</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1">
+        <v>33566</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43839</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="1">
+        <v>31443</v>
+      </c>
+      <c r="J17" s="1">
+        <v>44060</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1">
+        <v>34767</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44205</v>
+      </c>
+      <c r="K18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="1">
+        <v>31064</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1">
+        <v>31506</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43839</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="1">
+        <v>31929</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44085</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1">
+        <v>35450</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44530</v>
+      </c>
+      <c r="K22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="1">
+        <v>32244</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44287</v>
+      </c>
+      <c r="K23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="1">
+        <v>32976</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44287</v>
+      </c>
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="1">
+        <v>33115</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="1">
+        <v>33790</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="1">
+        <v>33553</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="1">
+        <v>35601</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44197</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="1">
+        <v>26583</v>
+      </c>
+      <c r="J29" s="1">
+        <v>43709</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="1">
+        <v>35486</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44199</v>
+      </c>
+      <c r="K30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="1">
+        <v>32241</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44411</v>
+      </c>
+      <c r="K31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="1">
+        <v>33743</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44198</v>
+      </c>
+      <c r="K32" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="1">
+        <v>35834</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44682</v>
+      </c>
+      <c r="K33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="1">
+        <v>37367</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44823</v>
+      </c>
+      <c r="K34" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="1">
+        <v>31786</v>
+      </c>
+      <c r="J35" s="1">
+        <v>44936</v>
+      </c>
+      <c r="K35" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="1">
+        <v>34763</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44936</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="1">
+        <v>34941</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44936</v>
+      </c>
+      <c r="K37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="1">
+        <v>35474</v>
+      </c>
+      <c r="J38" s="1">
+        <v>44936</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="1">
+        <v>33919</v>
+      </c>
+      <c r="J39" s="1">
+        <v>44937</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="1">
+        <v>35457</v>
+      </c>
+      <c r="J40" s="1">
+        <v>44748</v>
+      </c>
+      <c r="K40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="1">
+        <v>36048</v>
+      </c>
+      <c r="J41" s="1">
+        <v>44970</v>
+      </c>
+      <c r="K41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="1">
+        <v>33717</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45050</v>
+      </c>
+      <c r="K42" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="1">
+        <v>35896</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45049</v>
+      </c>
+      <c r="K43" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="1">
+        <v>35555</v>
+      </c>
+      <c r="J44" s="1">
+        <v>45054</v>
+      </c>
+      <c r="K44" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="1">
+        <v>35996</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44571</v>
+      </c>
+      <c r="K45" t="s">
+        <v>205</v>
+      </c>
+      <c r="L45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="1">
+        <v>35542</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44571</v>
+      </c>
+      <c r="K46" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" t="s">
+        <v>212</v>
+      </c>
+      <c r="H47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="1">
+        <v>35564</v>
+      </c>
+      <c r="J47" s="1">
+        <v>44571</v>
+      </c>
+      <c r="K47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="1">
+        <v>35835</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44571</v>
+      </c>
+      <c r="K48" t="s">
+        <v>217</v>
+      </c>
+      <c r="L48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="1">
+        <v>36606</v>
+      </c>
+      <c r="J49" s="1">
+        <v>44748</v>
+      </c>
+      <c r="K49" t="s">
+        <v>222</v>
+      </c>
+      <c r="L49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="1">
+        <v>34554</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44748</v>
+      </c>
+      <c r="K50" t="s">
+        <v>226</v>
+      </c>
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="1">
+        <v>34923</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44748</v>
+      </c>
+      <c r="K51" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" s="1">
+        <v>36090</v>
+      </c>
+      <c r="J52" s="1">
+        <v>44574</v>
+      </c>
+      <c r="K52" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
